--- a/pred_ohlcv/54_21/2019-10-19 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 CON ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-784577.6526999997</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-784577.6526999997</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-784577.6526999997</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-981767.0454999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-981767.0454999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1001290.5303</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1001290.5303</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1216379.1809</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-971456.3938999998</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-971456.3938999998</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-971456.3938999998</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-247708.6814999998</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-247708.6814999998</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-409169.6503999998</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-302838.7958999997</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>156468.4680000003</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>613064.3660000003</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>639183.2584000003</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1755860.5297</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1755860.5297</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>6962009.338226911</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>13364473.48882691</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>13704012.40522691</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>13559337.34218065</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>13671500.30277937</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>13671500.30277937</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>13671500.30277937</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>13579836.65617937</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>13366393.86777937</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>13366437.86777937</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>13201461.02997937</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>13201461.02997937</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>13451792.49217937</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>13442580.49217937</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>13442580.49217937</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>13615077.71227937</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>13339454.38097937</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>13323174.01397937</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>12887763.81647937</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>12887763.81647937</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>12613887.87877937</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>12321402.11567937</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>19041384.34480361</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>18317528.72310361</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>18317528.72310361</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>18246026.8172036</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>18433864.81950361</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>17994672.72210361</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>17531809.60150361</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>17444353.52390361</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>16962056.81744638</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>17043420.5304986</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>17395912.9101986</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>17373131.9593986</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>18224990.3097986</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>18224990.3097986</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>18224990.3097986</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>17852117.8160986</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>17852117.8160986</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>18141655.2277986</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>18141655.2277986</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>18018113.8817986</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>18179552.7374986</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>18141623.5746986</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>17813474.4970986</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>17813474.4970986</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>17813474.4970986</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>17908295.7910986</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>17660780.2076986</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>17402307.5286986</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>17081426.4822986</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>16013959.9882986</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>17764466.44383426</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>17708636.62233426</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>16806260.22483426</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>16410652.25433426</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>16410652.25433426</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>16781368.64473426</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>16700679.08313426</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>16700679.08313426</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>16485203.85423426</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>16485203.85423426</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>17573293.56888914</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>17259402.02710749</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>17489643.73500749</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>17416281.48440749</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>17399719.56990749</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>17399719.56990749</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>17399719.56990749</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>17399719.56990749</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>17323335.13840749</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-19 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 CON ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-784577.6526999997</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-784577.6526999997</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-784577.6526999997</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-981767.0454999998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-981767.0454999998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-904441.4347999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1001290.5303</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1001290.5303</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1216379.1809</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-971456.3938999998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-971456.3938999998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-971456.3938999998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-247708.6814999998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-247708.6814999998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-409169.6503999998</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-330496.4170999997</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>153174.9716000003</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-302838.7958999997</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>156468.4680000003</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>333182.4084000003</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>459266.1326000003</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>613064.3660000003</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>639183.2584000003</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>639183.2584000003</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>639183.2584000003</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1213256.3766</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>6962009.338226911</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>13364473.48882691</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>13704012.40522691</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>13559337.34218065</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>13671500.30277937</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>13671500.30277937</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>13671500.30277937</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>13579836.65617937</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>13366393.86777937</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>13366437.86777937</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>13201461.02997937</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>13201461.02997937</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>13451792.49217937</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>13442580.49217937</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>13442580.49217937</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>13615089.71227937</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>13615077.71227937</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>13339454.38097937</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>13323174.01397937</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>12887763.81647937</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>12887763.81647937</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>12613887.87877937</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>12321402.11567937</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>17425974.7514036</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>18750205.96660361</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>19041384.34480361</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>18317528.72310361</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>18317528.72310361</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>18246026.8172036</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>18433864.81950361</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>17994672.72210361</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>17531809.60150361</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>17444353.52390361</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>16962056.81744638</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>17043420.5304986</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>17395912.9101986</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>17373131.9593986</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>18224990.3097986</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>18224990.3097986</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>18224990.3097986</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>17852117.8160986</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>17852117.8160986</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>18141655.2277986</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>18141655.2277986</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>18018113.8817986</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>18179552.7374986</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>18141623.5746986</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>17813474.4970986</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>17813474.4970986</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>17813474.4970986</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>17928312.2039986</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>17908295.7910986</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>17660780.2076986</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>17402307.5286986</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>17081426.4822986</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>16013959.9882986</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>16781368.64473426</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>16781368.64473426</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>16700679.08313426</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>16700679.08313426</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>16641967.94893426</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>16899106.15193426</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>17150413.34713426</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>17314050.63453426</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>17356768.85973426</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>17556950.50068914</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>17573293.56888914</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>17528725.11490749</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>17259402.02710749</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>17489643.73500749</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>17416281.48440749</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>17399719.56990749</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>17399719.56990749</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>17399719.56990749</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>17763298.58014096</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>17860176.74494096</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>17860176.74494096</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>17860176.74494096</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
